--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_18-53.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_18-53.xlsx
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
     <t>PANTOPI 40MG 14 TAB</t>
@@ -2423,13 +2426,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2455,11 +2458,11 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2475,17 +2478,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2501,13 +2504,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2527,13 +2530,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2553,17 +2556,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2579,17 +2582,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2605,17 +2608,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2631,17 +2634,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2649,7 +2652,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2657,17 +2660,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2689,7 +2692,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2709,13 +2712,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2735,17 +2738,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2761,13 +2764,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2787,17 +2790,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2813,13 +2816,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2831,7 +2834,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2839,17 +2842,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2857,7 +2860,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2865,17 +2868,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2883,7 +2886,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2891,17 +2894,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2917,17 +2920,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2943,13 +2946,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2969,7 +2972,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -2995,13 +2998,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3013,7 +3016,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3021,17 +3024,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3039,7 +3042,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3047,17 +3050,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3073,17 +3076,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3099,13 +3102,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3125,13 +3128,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3151,13 +3154,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3177,13 +3180,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>30</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3195,7 +3198,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3203,51 +3206,77 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" s="6">
+        <v>88</v>
+      </c>
+      <c t="s" r="B91" s="7">
+        <v>122</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c t="s" r="H91" s="8">
+        <v>121</v>
+      </c>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="9">
+        <v>70</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c t="s" r="N91" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="K91" s="10">
-        <v>3908.8600000000001</v>
-      </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="11">
-        <v>122</v>
-      </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c t="s" r="F92" s="12">
+    <row r="92" ht="26.25" customHeight="1">
+      <c r="K92" s="10">
+        <v>3946.8600000000001</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="11">
         <v>123</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c t="s" r="I92" s="14">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c t="s" r="F93" s="12">
         <v>124</v>
       </c>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+      <c t="s" r="I93" s="14">
+        <v>125</v>
+      </c>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="275">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3516,10 +3545,13 @@
     <mergeCell ref="B90:G90"/>
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="I92:N92"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="I93:N93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
